--- a/InputData/TestData.xlsx
+++ b/InputData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="98">
   <si>
     <t>Module_Name</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>TC_ID</t>
@@ -686,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -710,40 +707,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -776,67 +773,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -844,33 +841,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -878,16 +875,16 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -895,33 +892,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -929,16 +926,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>9502076009</v>
@@ -946,16 +943,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -963,33 +960,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -997,33 +994,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1031,33 +1028,33 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1065,33 +1062,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1099,33 +1096,33 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -1133,19 +1130,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1175,67 +1172,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1243,33 +1240,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1277,16 +1274,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1294,33 +1291,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1328,33 +1325,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1362,33 +1359,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1396,19 +1393,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1435,67 +1432,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
@@ -1503,33 +1500,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -1537,16 +1534,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7">
         <v>10</v>
@@ -1554,33 +1551,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7">
         <v>10</v>
@@ -1588,33 +1585,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7">
         <v>10</v>
@@ -1622,33 +1619,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7">
         <v>10</v>
@@ -1656,33 +1653,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="7">
         <v>10</v>
@@ -1690,33 +1687,33 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7">
         <v>10</v>
@@ -1724,33 +1721,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="7">
         <v>10</v>
@@ -1758,19 +1755,19 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -1797,67 +1794,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>10</v>
@@ -1865,33 +1862,33 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -1899,16 +1896,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="7">
         <v>20</v>
@@ -1916,33 +1913,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="7">
         <v>10</v>
@@ -1950,33 +1947,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="7">
         <v>10</v>
@@ -1984,33 +1981,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7">
         <v>10</v>
@@ -2018,50 +2015,50 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2069,33 +2066,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2103,16 +2100,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -2120,36 +2117,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
